--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Itga3</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H2">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I2">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J2">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.570384905948909</v>
+        <v>11.451657</v>
       </c>
       <c r="N2">
-        <v>8.570384905948909</v>
+        <v>34.354971</v>
       </c>
       <c r="O2">
-        <v>0.6994370645599617</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P2">
-        <v>0.6994370645599617</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q2">
-        <v>2.135237244420708</v>
+        <v>5.534104858506</v>
       </c>
       <c r="R2">
-        <v>2.135237244420708</v>
+        <v>49.806943726554</v>
       </c>
       <c r="S2">
-        <v>0.04115426022458959</v>
+        <v>0.07129571119128325</v>
       </c>
       <c r="T2">
-        <v>0.04115426022458959</v>
+        <v>0.08244916877477818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H3">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I3">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J3">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.486649506573794</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N3">
-        <v>0.486649506573794</v>
+        <v>1.572043</v>
       </c>
       <c r="O3">
-        <v>0.03971591778932378</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P3">
-        <v>0.03971591778932378</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q3">
-        <v>0.1212445138483865</v>
+        <v>0.2532341186979999</v>
       </c>
       <c r="R3">
-        <v>0.1212445138483865</v>
+        <v>2.279107068282</v>
       </c>
       <c r="S3">
-        <v>0.002336849587444356</v>
+        <v>0.003262407751945955</v>
       </c>
       <c r="T3">
-        <v>0.002336849587444356</v>
+        <v>0.003772776831283269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H4">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I4">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J4">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.19622658865231</v>
+        <v>0.123396</v>
       </c>
       <c r="N4">
-        <v>3.19622658865231</v>
+        <v>0.370188</v>
       </c>
       <c r="O4">
-        <v>0.2608470176507144</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P4">
-        <v>0.2608470176507144</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q4">
-        <v>0.7963121993460258</v>
+        <v>0.05963210416800001</v>
       </c>
       <c r="R4">
-        <v>0.7963121993460258</v>
+        <v>0.5366889375120001</v>
       </c>
       <c r="S4">
-        <v>0.01534800854449904</v>
+        <v>0.0007682386556076198</v>
       </c>
       <c r="T4">
-        <v>0.01534800854449904</v>
+        <v>0.0008884214424281595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.34010785162245</v>
+        <v>0.483258</v>
       </c>
       <c r="H5">
-        <v>3.34010785162245</v>
+        <v>1.449774</v>
       </c>
       <c r="I5">
-        <v>0.7888253119934725</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J5">
-        <v>0.7888253119934725</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>8.570384905948909</v>
+        <v>0.104921</v>
       </c>
       <c r="N5">
-        <v>8.570384905948909</v>
+        <v>0.314763</v>
       </c>
       <c r="O5">
-        <v>0.6994370645599617</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P5">
-        <v>0.6994370645599617</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q5">
-        <v>28.62600991578649</v>
+        <v>0.050703912618</v>
       </c>
       <c r="R5">
-        <v>28.62600991578649</v>
+        <v>0.4563352135620001</v>
       </c>
       <c r="S5">
-        <v>0.5517336606713104</v>
+        <v>0.00065321702474154</v>
       </c>
       <c r="T5">
-        <v>0.5517336606713104</v>
+        <v>0.0007554058977682008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.34010785162245</v>
+        <v>0.483258</v>
       </c>
       <c r="H6">
-        <v>3.34010785162245</v>
+        <v>1.449774</v>
       </c>
       <c r="I6">
-        <v>0.7888253119934725</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J6">
-        <v>0.7888253119934725</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.486649506573794</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N6">
-        <v>0.486649506573794</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O6">
-        <v>0.03971591778932378</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P6">
-        <v>0.03971591778932378</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q6">
-        <v>1.625461837895321</v>
+        <v>2.187076139649</v>
       </c>
       <c r="R6">
-        <v>1.625461837895321</v>
+        <v>13.122456837894</v>
       </c>
       <c r="S6">
-        <v>0.03132892124127043</v>
+        <v>0.0281760380029837</v>
       </c>
       <c r="T6">
-        <v>0.03132892124127043</v>
+        <v>0.021722586804507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H7">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I7">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J7">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.19622658865231</v>
+        <v>11.451657</v>
       </c>
       <c r="N7">
-        <v>3.19622658865231</v>
+        <v>34.354971</v>
       </c>
       <c r="O7">
-        <v>0.2608470176507144</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P7">
-        <v>0.2608470176507144</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q7">
-        <v>10.67574152432202</v>
+        <v>39.692500531663</v>
       </c>
       <c r="R7">
-        <v>10.67574152432202</v>
+        <v>357.232504784967</v>
       </c>
       <c r="S7">
-        <v>0.2057627300808917</v>
+        <v>0.5113573245753912</v>
       </c>
       <c r="T7">
-        <v>0.2057627300808917</v>
+        <v>0.5913537526124031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.645031573572953</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H8">
-        <v>0.645031573572953</v>
+        <v>10.398277</v>
       </c>
       <c r="I8">
-        <v>0.1523355696499945</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J8">
-        <v>0.1523355696499945</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.570384905948909</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N8">
-        <v>8.570384905948909</v>
+        <v>1.572043</v>
       </c>
       <c r="O8">
-        <v>0.6994370645599617</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P8">
-        <v>0.6994370645599617</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q8">
-        <v>5.52816886201011</v>
+        <v>1.816282063323444</v>
       </c>
       <c r="R8">
-        <v>5.52816886201011</v>
+        <v>16.346538569911</v>
       </c>
       <c r="S8">
-        <v>0.1065491436640617</v>
+        <v>0.02339910875190294</v>
       </c>
       <c r="T8">
-        <v>0.1065491436640617</v>
+        <v>0.02705965105655481</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.645031573572953</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H9">
-        <v>0.645031573572953</v>
+        <v>10.398277</v>
       </c>
       <c r="I9">
-        <v>0.1523355696499945</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J9">
-        <v>0.1523355696499945</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.486649506573794</v>
+        <v>0.123396</v>
       </c>
       <c r="N9">
-        <v>0.486649506573794</v>
+        <v>0.370188</v>
       </c>
       <c r="O9">
-        <v>0.03971591778932378</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P9">
-        <v>0.03971591778932378</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q9">
-        <v>0.3139042970037955</v>
+        <v>0.427701929564</v>
       </c>
       <c r="R9">
-        <v>0.3139042970037955</v>
+        <v>3.849317366076</v>
       </c>
       <c r="S9">
-        <v>0.006050146960608988</v>
+        <v>0.005510071461562722</v>
       </c>
       <c r="T9">
-        <v>0.006050146960608988</v>
+        <v>0.006372063681034116</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.645031573572953</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H10">
-        <v>0.645031573572953</v>
+        <v>10.398277</v>
       </c>
       <c r="I10">
-        <v>0.1523355696499945</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J10">
-        <v>0.1523355696499945</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.19622658865231</v>
+        <v>0.104921</v>
       </c>
       <c r="N10">
-        <v>3.19622658865231</v>
+        <v>0.314763</v>
       </c>
       <c r="O10">
-        <v>0.2608470176507144</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P10">
-        <v>0.2608470176507144</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q10">
-        <v>2.061667065974111</v>
+        <v>0.3636658737056667</v>
       </c>
       <c r="R10">
-        <v>2.061667065974111</v>
+        <v>3.272992863351</v>
       </c>
       <c r="S10">
-        <v>0.03973627902532376</v>
+        <v>0.004685096825007474</v>
       </c>
       <c r="T10">
-        <v>0.03973627902532376</v>
+        <v>0.005418030515395802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.466092333333334</v>
+      </c>
+      <c r="H11">
+        <v>10.398277</v>
+      </c>
+      <c r="I11">
+        <v>0.7470398222037985</v>
+      </c>
+      <c r="J11">
+        <v>0.7860053502574217</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N11">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P11">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q11">
+        <v>15.6864611450895</v>
+      </c>
+      <c r="R11">
+        <v>94.11876687053702</v>
+      </c>
+      <c r="S11">
+        <v>0.2020882205899343</v>
+      </c>
+      <c r="T11">
+        <v>0.1558018523920339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.0003813333333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.001144</v>
+      </c>
+      <c r="I12">
+        <v>8.218799678073065E-05</v>
+      </c>
+      <c r="J12">
+        <v>8.64749150935766E-05</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11.451657</v>
+      </c>
+      <c r="N12">
+        <v>34.354971</v>
+      </c>
+      <c r="O12">
+        <v>0.6845114669615147</v>
+      </c>
+      <c r="P12">
+        <v>0.752353342656931</v>
+      </c>
+      <c r="Q12">
+        <v>0.004366898536</v>
+      </c>
+      <c r="R12">
+        <v>0.039302086824</v>
+      </c>
+      <c r="S12">
+        <v>5.625862624300618E-05</v>
+      </c>
+      <c r="T12">
+        <v>6.505969142662665E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.0003813333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.001144</v>
+      </c>
+      <c r="I13">
+        <v>8.218799678073065E-05</v>
+      </c>
+      <c r="J13">
+        <v>8.64749150935766E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5240143333333332</v>
+      </c>
+      <c r="N13">
+        <v>1.572043</v>
+      </c>
+      <c r="O13">
+        <v>0.03132243831777883</v>
+      </c>
+      <c r="P13">
+        <v>0.03442680262633404</v>
+      </c>
+      <c r="Q13">
+        <v>0.0001998241324444444</v>
+      </c>
+      <c r="R13">
+        <v>0.001798417192</v>
+      </c>
+      <c r="S13">
+        <v>2.57432845962624E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.977054834055556E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.0003813333333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.001144</v>
+      </c>
+      <c r="I14">
+        <v>8.218799678073065E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.64749150935766E-05</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.123396</v>
+      </c>
+      <c r="N14">
+        <v>0.370188</v>
+      </c>
+      <c r="O14">
+        <v>0.007375873812600488</v>
+      </c>
+      <c r="P14">
+        <v>0.008106896064953279</v>
+      </c>
+      <c r="Q14">
+        <v>4.7055008E-05</v>
+      </c>
+      <c r="R14">
+        <v>0.0004234950720000001</v>
+      </c>
+      <c r="S14">
+        <v>6.062082931650844E-07</v>
+      </c>
+      <c r="T14">
+        <v>7.01043148889285E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.0003813333333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.001144</v>
+      </c>
+      <c r="I15">
+        <v>8.218799678073065E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.64749150935766E-05</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.104921</v>
+      </c>
+      <c r="N15">
+        <v>0.314763</v>
+      </c>
+      <c r="O15">
+        <v>0.006271548966675223</v>
+      </c>
+      <c r="P15">
+        <v>0.006893121673562862</v>
+      </c>
+      <c r="Q15">
+        <v>4.000987466666667E-05</v>
+      </c>
+      <c r="R15">
+        <v>0.000360088872</v>
+      </c>
+      <c r="S15">
+        <v>5.154460462832978E-07</v>
+      </c>
+      <c r="T15">
+        <v>5.960821114510411E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.0003813333333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.001144</v>
+      </c>
+      <c r="I16">
+        <v>8.218799678073065E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.64749150935766E-05</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N16">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P16">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q16">
+        <v>0.001725796644</v>
+      </c>
+      <c r="R16">
+        <v>0.010354779864</v>
+      </c>
+      <c r="S16">
+        <v>2.223338773864985E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.714104357255407E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.380075</v>
+      </c>
+      <c r="I17">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J17">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.451657</v>
+      </c>
+      <c r="N17">
+        <v>34.354971</v>
+      </c>
+      <c r="O17">
+        <v>0.6845114669615147</v>
+      </c>
+      <c r="P17">
+        <v>0.752353342656931</v>
+      </c>
+      <c r="Q17">
+        <v>7.902072767137501</v>
+      </c>
+      <c r="R17">
+        <v>47.412436602825</v>
+      </c>
+      <c r="S17">
+        <v>0.1018021725685971</v>
+      </c>
+      <c r="T17">
+        <v>0.07848536157832323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.380075</v>
+      </c>
+      <c r="I18">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J18">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5240143333333332</v>
+      </c>
+      <c r="N18">
+        <v>1.572043</v>
+      </c>
+      <c r="O18">
+        <v>0.03132243831777883</v>
+      </c>
+      <c r="P18">
+        <v>0.03442680262633404</v>
+      </c>
+      <c r="Q18">
+        <v>0.3615895405375</v>
+      </c>
+      <c r="R18">
+        <v>2.169537243225</v>
+      </c>
+      <c r="S18">
+        <v>0.004658347485470302</v>
+      </c>
+      <c r="T18">
+        <v>0.003591397683661907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.380075</v>
+      </c>
+      <c r="I19">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J19">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.123396</v>
+      </c>
+      <c r="N19">
+        <v>0.370188</v>
+      </c>
+      <c r="O19">
+        <v>0.007375873812600488</v>
+      </c>
+      <c r="P19">
+        <v>0.008106896064953279</v>
+      </c>
+      <c r="Q19">
+        <v>0.08514786735000002</v>
+      </c>
+      <c r="R19">
+        <v>0.5108872041000001</v>
+      </c>
+      <c r="S19">
+        <v>0.001096957487136981</v>
+      </c>
+      <c r="T19">
+        <v>0.0008457098983421155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.380075</v>
+      </c>
+      <c r="I20">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J20">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.104921</v>
+      </c>
+      <c r="N20">
+        <v>0.314763</v>
+      </c>
+      <c r="O20">
+        <v>0.006271548966675223</v>
+      </c>
+      <c r="P20">
+        <v>0.006893121673562862</v>
+      </c>
+      <c r="Q20">
+        <v>0.07239942453750001</v>
+      </c>
+      <c r="R20">
+        <v>0.4343965472250001</v>
+      </c>
+      <c r="S20">
+        <v>0.0009327196708799242</v>
+      </c>
+      <c r="T20">
+        <v>0.0007190891782874087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.380075</v>
+      </c>
+      <c r="I21">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J21">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N21">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P21">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q21">
+        <v>3.122896158393751</v>
+      </c>
+      <c r="R21">
+        <v>12.491584633575</v>
+      </c>
+      <c r="S21">
+        <v>0.0402321799607743</v>
+      </c>
+      <c r="T21">
+        <v>0.02067825673810538</v>
       </c>
     </row>
   </sheetData>
